--- a/src/test/resources/stok.xlsx
+++ b/src/test/resources/stok.xlsx
@@ -336,7 +336,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -366,7 +366,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -374,7 +374,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -382,7 +382,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -390,7 +390,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
